--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,14 @@
         <v>2779</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B6">
+        <v>2838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,6 +434,14 @@
         <v>2838</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B7">
+        <v>2889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,6 +442,14 @@
         <v>2889</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B8">
+        <v>2949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,6 +450,14 @@
         <v>2949</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B9">
+        <v>3007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,14 @@
         <v>3007</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B10">
+        <v>3026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,6 +466,14 @@
         <v>3026</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B11">
+        <v>3044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,6 +474,14 @@
         <v>3044</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B12">
+        <v>3014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +482,14 @@
         <v>3014</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B13">
+        <v>3020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,14 @@
         <v>3020</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B14">
+        <v>3016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +498,14 @@
         <v>3016</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B15">
+        <v>3035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +506,14 @@
         <v>3035</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B16">
+        <v>3027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +514,14 @@
         <v>3027</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B17">
+        <v>3033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +522,14 @@
         <v>3033</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B18">
+        <v>3042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +530,14 @@
         <v>3042</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B19">
+        <v>2934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +538,14 @@
         <v>2934</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B20">
+        <v>2878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,6 +546,14 @@
         <v>2878</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B21">
+        <v>2894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,6 +554,14 @@
         <v>2894</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B22">
+        <v>2934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,6 +562,14 @@
         <v>2934</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B23">
+        <v>2932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +570,14 @@
         <v>2932</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B24">
+        <v>2984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +578,14 @@
         <v>2984</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B25">
+        <v>3063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,6 +586,14 @@
         <v>3063</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B26">
+        <v>3039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,14 @@
         <v>3039</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B27">
+        <v>3082</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,6 +602,14 @@
         <v>3082</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B28">
+        <v>3117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,14 @@
         <v>3117</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B29">
+        <v>3175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,14 @@
         <v>3175</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B30">
+        <v>3216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,6 +626,14 @@
         <v>3216</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B31">
+        <v>3233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,6 +634,14 @@
         <v>3233</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B32">
+        <v>3229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,6 +642,14 @@
         <v>3229</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B33">
+        <v>3230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,6 +650,14 @@
         <v>3230</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B34">
+        <v>3249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,6 +658,14 @@
         <v>3249</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B35">
+        <v>3269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,6 +666,14 @@
         <v>3269</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B36">
+        <v>3281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,6 +674,14 @@
         <v>3281</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B37">
+        <v>3214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,6 +682,14 @@
         <v>3214</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B38">
+        <v>3257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,6 +690,14 @@
         <v>3257</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B39">
+        <v>3272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,6 +698,14 @@
         <v>3272</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B40">
+        <v>3130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,14 @@
         <v>3130</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B41">
+        <v>3078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,6 +714,14 @@
         <v>3078</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B42">
+        <v>3111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,6 +722,14 @@
         <v>3111</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B43">
+        <v>3134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,6 +730,14 @@
         <v>3134</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B44">
+        <v>3159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,6 +738,14 @@
         <v>3159</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B45">
+        <v>3236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,6 +746,14 @@
         <v>3236</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B46">
+        <v>3225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,6 +754,30 @@
         <v>3225</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B47">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B48">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B49">
+        <v>3179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,6 +778,14 @@
         <v>3179</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B50">
+        <v>3313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,6 +786,14 @@
         <v>3313</v>
       </c>
     </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B51">
+        <v>3363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,6 +794,14 @@
         <v>3363</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B52">
+        <v>3368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,6 +802,238 @@
         <v>3368</v>
       </c>
     </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B53">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B54">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B55">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B56">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B57">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B58">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B59">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B60">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B61">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B62">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B63">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B64">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B65">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B66">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B67">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B68">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B69">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B70">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B71">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B72">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B73">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B74">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B75">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B76">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B77">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B78">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B79">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B80">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B81">
+        <v>1957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
